--- a/StudentManagement/excels/grade.xlsx
+++ b/StudentManagement/excels/grade.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaProject\StudentManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JavaProject\StudentManagement\StudentManagement\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EDD8D5-80E2-4257-8413-F26D54063099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88BC8DB-745D-4E0F-B8A5-AD12AA04789E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D93DEF0E-9E5E-4CFD-83AA-8A37395EBFAD}"/>
   </bookViews>
@@ -186,13 +186,13 @@
     <t>End time</t>
   </si>
   <si>
-    <t>Id Grade</t>
-  </si>
-  <si>
     <t>Student quantity</t>
   </si>
   <si>
     <t>day of week</t>
+  </si>
+  <si>
+    <t>Id Course</t>
   </si>
 </sst>
 </file>
@@ -573,7 +573,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -604,13 +604,13 @@
         <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8">
